--- a/biology/Médecine/François-Antoine_Curtet/François-Antoine_Curtet.xlsx
+++ b/biology/Médecine/François-Antoine_Curtet/François-Antoine_Curtet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Antoine_Curtet</t>
+          <t>François-Antoine_Curtet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François-Antoine Curtet, né le 9 février 1763 à Chaumont (Haute-Savoie), décédé à Bruxelles le 19 avril 1830 et inhumé au cimetière de Bruxelles, est un médecin Savoyard établi à Bruxelles sous le République française. Il est le fils de Christophe Curtet, décédé en 1802 et d'Anne-Marie Chiron décédée en 1800.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Antoine_Curtet</t>
+          <t>François-Antoine_Curtet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir étudié la médecine et la chirurgie aux universités de Turin et de Strasbourg, il s'engagea dans l'armée française où il servit comme chirurgien.
 Il s'installa à Bruxelles où il avait épousé le 11 juin 1798, Barbe-Marie-Josèphe Van Mons (née le 30 octobre 1776 à Bruxelles et y décédée le 7 septembre 1819) qui était la sœur du savant Jean-Baptiste Van Mons et participa comme lui activement à la vie scientifique et littéraire de ce chef-lieu du département de la Dyle. Ils furent les parents de Cécile Curtet née le 1er novembre 1801 à Bruxelles et y décédée le 20 mars 1858, qui épousa le 20 septembre 1824, le célèbre savant Adolphe Quetelet (1796-1874).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois-Antoine_Curtet</t>
+          <t>François-Antoine_Curtet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Ses publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1802 : Rapport sur la situation médicale de la maison de détention située à Vilvorde, par les Citoyens Duval, Curtet et Fournier, commissaires nommés par la Société de médecine de Bruxelles, pour examiner ladite maison; d'après la demande du Préfet du Département de la Dyle, Bruxelles, de l'imprimerie de Weissenbruch, 1802.
 1805 : Sur la colique venteuse ou flatulente, 1805.</t>
